--- a/Assessments/Exam-Msft-AZ-204-Self-Assessment-Build5Nines.xlsx
+++ b/Assessments/Exam-Msft-AZ-204-Self-Assessment-Build5Nines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e65a71525769dffd/Documenti/Penna Matteo/Azure Certification/AZ-204 Azure Certification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{3CCD204D-E6B6-4009-8EDC-BE517205B885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51FA49EC-C8FE-4E29-9AE7-9A804FC8933C}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{3CCD204D-E6B6-4009-8EDC-BE517205B885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C7CFA8A-D465-4651-9F0F-E9AA0C543235}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
   <si>
     <t>Microsoft Certification Self-Assessment Tool</t>
   </si>
@@ -317,12 +317,6 @@
     <t>define policies for APIs</t>
   </si>
   <si>
-    <t>Develop event-based solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Creating event models is in scope </t>
-  </si>
-  <si>
     <t xml:space="preserve">implement solutions that use Azure Event Grid </t>
   </si>
   <si>
@@ -339,6 +333,9 @@
   </si>
   <si>
     <t>implement solutions that use Azure Queue Storage queues</t>
+  </si>
+  <si>
+    <t>Develop event-based solutions (Note: Creating event models is in scope)</t>
   </si>
 </sst>
 </file>
@@ -549,1174 +546,724 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="111">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2581,49 +2128,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B16:B18 B20">
-    <cfRule type="cellIs" dxfId="155" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="9" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B18 B20">
-    <cfRule type="cellIs" dxfId="154" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B18 B20">
-    <cfRule type="cellIs" dxfId="153" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="7" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="152" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="6" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="151" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="5" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="4" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="149" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="148" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
@@ -2642,7 +2189,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -3072,7 +2619,7 @@
         <v>41</v>
       </c>
       <c r="D50" s="11">
-        <f>SUM(D51:D66)/4</f>
+        <f>SUM(D51:D65)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3144,16 +2691,16 @@
     </row>
     <row r="59" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D59" s="8">
-        <f>(VLOOKUP(D60,List_Categories,2,FALSE)+VLOOKUP(D61,List_Categories,2,FALSE)+VLOOKUP(D62,List_Categories,2,FALSE)+VLOOKUP(D63,List_Categories,2,FALSE))/4</f>
+        <f>(VLOOKUP(D60,List_Categories,2,FALSE)+VLOOKUP(D61,List_Categories,2,FALSE)++VLOOKUP(D62,List_Categories,2,FALSE))/3</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
@@ -3161,7 +2708,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
@@ -3169,430 +2716,407 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+      <c r="D63" s="8">
+        <f>(VLOOKUP(D64,List_Categories,2,FALSE)+VLOOKUP(D65,List_Categories,2,FALSE))/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>96</v>
       </c>
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="8">
-        <f>(VLOOKUP(D65,List_Categories,2,FALSE)+VLOOKUP(D66,List_Categories,2,FALSE))/2</f>
-        <v>0</v>
+      <c r="D64" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="146" priority="278" operator="equal">
+  <conditionalFormatting sqref="D6 D60:D62">
+    <cfRule type="cellIs" dxfId="101" priority="278" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="145" priority="277" operator="equal">
+  <conditionalFormatting sqref="D6 D60:D62">
+    <cfRule type="cellIs" dxfId="100" priority="277" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="144" priority="276" operator="equal">
+  <conditionalFormatting sqref="D6 D60:D62">
+    <cfRule type="cellIs" dxfId="99" priority="276" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="143" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="275" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="142" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="274" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="141" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="273" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D14">
-    <cfRule type="cellIs" dxfId="140" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="272" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D14">
-    <cfRule type="cellIs" dxfId="139" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="271" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D14">
-    <cfRule type="cellIs" dxfId="138" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="270" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" dxfId="137" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="269" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" dxfId="136" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="268" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" dxfId="135" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="267" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D25">
-    <cfRule type="cellIs" dxfId="131" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="263" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D25">
-    <cfRule type="cellIs" dxfId="130" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="262" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D25">
-    <cfRule type="cellIs" dxfId="129" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="261" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D30">
-    <cfRule type="cellIs" dxfId="128" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="260" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D30">
-    <cfRule type="cellIs" dxfId="127" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="259" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D30">
-    <cfRule type="cellIs" dxfId="126" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="258" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D58">
-    <cfRule type="cellIs" dxfId="119" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="215" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D58">
-    <cfRule type="cellIs" dxfId="118" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="214" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D58">
-    <cfRule type="cellIs" dxfId="117" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="213" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D39">
-    <cfRule type="cellIs" dxfId="116" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="248" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D39">
-    <cfRule type="cellIs" dxfId="115" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="247" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D39">
-    <cfRule type="cellIs" dxfId="114" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="246" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D54">
-    <cfRule type="cellIs" dxfId="113" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="218" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D54">
-    <cfRule type="cellIs" dxfId="112" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="217" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D54">
-    <cfRule type="cellIs" dxfId="111" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="216" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D63">
-    <cfRule type="cellIs" dxfId="110" priority="212" operator="equal">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="74" priority="209" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D63">
-    <cfRule type="cellIs" dxfId="109" priority="211" operator="equal">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="73" priority="208" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D63">
-    <cfRule type="cellIs" dxfId="108" priority="210" operator="equal">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="72" priority="207" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="107" priority="209" operator="equal">
-      <formula>"No Idea"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="106" priority="208" operator="equal">
-      <formula>"Know a Little"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="105" priority="207" operator="equal">
-      <formula>"Know Well"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="104" priority="189" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="189" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="103" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="188" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="102" priority="187" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="187" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="101" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="117" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="100" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="116" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="99" priority="115" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="115" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="98" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="120" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="97" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="119" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="96" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="118" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="95" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="114" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="94" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="113" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="93" priority="112" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="112" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="92" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="111" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="91" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="110" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="90" priority="109" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="109" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="89" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="108" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="88" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="107" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="87" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="106" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="86" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="105" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="85" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="104" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="84" priority="103" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="103" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="83" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="102" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="82" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="101" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="81" priority="100" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="100" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="62" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="66" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="65" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="50" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="69" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="49" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="68" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="48" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="67" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="between">
-      <formula>0.5</formula>
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="33" priority="22" operator="between">
+      <formula>0.5</formula>
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="32" priority="12" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
@@ -3707,17 +3231,17 @@
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
@@ -3761,7 +3285,7 @@
           <x14:formula1>
             <xm:f>'Other Values'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D8 D65:D66 D10:D14 D16:D18 D46:D49 D21:D25 D27:D30 D37:D39 D33:D35 D42:D44 D52:D54 D56:D58 D60:D63</xm:sqref>
+          <xm:sqref>D4:D8 D64:D65 D10:D14 D16:D18 D46:D49 D21:D25 D27:D30 D37:D39 D33:D35 D42:D44 D52:D54 D56:D58 D60:D62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assessments/Exam-Msft-AZ-204-Self-Assessment-Build5Nines.xlsx
+++ b/Assessments/Exam-Msft-AZ-204-Self-Assessment-Build5Nines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e65a71525769dffd/Documenti/Penna Matteo/Azure Certification/AZ-204 Azure Certification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteope\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{3CCD204D-E6B6-4009-8EDC-BE517205B885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C7CFA8A-D465-4651-9F0F-E9AA0C543235}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C4B33-58AE-40C7-9EB6-66F1D68DB981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="List_Categories">'Other Values'!$A$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>Microsoft Certification Self-Assessment Tool</t>
   </si>
@@ -167,18 +169,12 @@
     <t>Connect to and consume Azure services and third-party services (25-30%)</t>
   </si>
   <si>
-    <t>Implement IaaS solutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">provision VMs </t>
   </si>
   <si>
     <t xml:space="preserve">create ARM templates </t>
   </si>
   <si>
-    <t xml:space="preserve">create container images for solutions </t>
-  </si>
-  <si>
     <t xml:space="preserve">publish an image to the Azure Container Registry </t>
   </si>
   <si>
@@ -197,12 +193,6 @@
     <t xml:space="preserve">deploy code to a web app </t>
   </si>
   <si>
-    <t xml:space="preserve">configure web app settings </t>
-  </si>
-  <si>
-    <t>implement autoscaling rules (schedule, operational/system metrics)</t>
-  </si>
-  <si>
     <t>Implement Azure functions</t>
   </si>
   <si>
@@ -272,9 +262,6 @@
     <t xml:space="preserve">develop code to implement CDN’s in solutions </t>
   </si>
   <si>
-    <t xml:space="preserve">configure cache and expiration policies </t>
-  </si>
-  <si>
     <t>store and retrieve data in Azure Redis cache</t>
   </si>
   <si>
@@ -336,6 +323,36 @@
   </si>
   <si>
     <t>Develop event-based solutions (Note: Creating event models is in scope)</t>
+  </si>
+  <si>
+    <t>configure VMs for remote access</t>
+  </si>
+  <si>
+    <t>create container images for solutions by using Docker</t>
+  </si>
+  <si>
+    <t>Implement IaaS solutions (Azure Kubernetes Service (AKS) is out of scope)</t>
+  </si>
+  <si>
+    <t>configure web app settings including SSL, API and connection strings</t>
+  </si>
+  <si>
+    <t>implement autoscaling rules, including scheduled autoscaling and scaling by operational or system metrics</t>
+  </si>
+  <si>
+    <t>implement scaling (partition, containers)</t>
+  </si>
+  <si>
+    <t>implement server-side programming including stored procedures, triggers and change feed notifications</t>
+  </si>
+  <si>
+    <t>implement hot, cool and archive storage</t>
+  </si>
+  <si>
+    <t>control access to resources by using role-based access controls (RBAC)</t>
+  </si>
+  <si>
+    <t>configure cache and expiration policies for FrontDoor, CDNs or Redis caches Store and retrieve data in Azure Redis cache</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2042,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="8">
-        <f>'Self Assessment'!D19</f>
+        <f>'Self Assessment'!D20</f>
         <v>0</v>
       </c>
     </row>
@@ -2034,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="8">
-        <f>'Self Assessment'!D31</f>
+        <f>'Self Assessment'!D35</f>
         <v>0</v>
       </c>
     </row>
@@ -2043,7 +2060,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="8">
-        <f>'Self Assessment'!D40</f>
+        <f>'Self Assessment'!D45</f>
         <v>0</v>
       </c>
     </row>
@@ -2052,7 +2069,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="8">
-        <f>'Self Assessment'!D50</f>
+        <f>'Self Assessment'!D55</f>
         <v>0</v>
       </c>
     </row>
@@ -2189,17 +2206,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="70.75" customWidth="1"/>
+    <col min="3" max="3" width="100.125" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2222,22 +2239,22 @@
         <v>38</v>
       </c>
       <c r="D2" s="11">
-        <f>SUM(D3:D18)/9</f>
+        <f>SUM(D3:D19)/9</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D3" s="8">
-        <f>(VLOOKUP(D4,List_Categories,2,FALSE)+VLOOKUP(D5,List_Categories,2,FALSE)+VLOOKUP(D6,List_Categories,2,FALSE)+VLOOKUP(D7,List_Categories,2,FALSE)+VLOOKUP(D8,List_Categories,2,FALSE))/5</f>
+        <f>(VLOOKUP(D4,List_Categories,2,FALSE)+VLOOKUP(D5,List_Categories,2,FALSE)+VLOOKUP(D6,List_Categories,2,FALSE)+VLOOKUP(D7,List_Categories,2,FALSE)+VLOOKUP(D8,List_Categories,2,FALSE)+VLOOKUP(D9,List_Categories,2,FALSE))/6</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -2245,15 +2262,15 @@
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -2261,40 +2278,40 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="8">
-        <f>(VLOOKUP(D10,List_Categories,2,FALSE)+VLOOKUP(D11,List_Categories,2,FALSE)+VLOOKUP(D12,List_Categories,2,FALSE)+VLOOKUP(D13,List_Categories,2,FALSE)+VLOOKUP(D14,List_Categories,2,FALSE))/5</f>
+      <c r="D10" s="8">
+        <f>(VLOOKUP(D11,List_Categories,2,FALSE)+VLOOKUP(D12,List_Categories,2,FALSE)+VLOOKUP(D13,List_Categories,2,FALSE)+VLOOKUP(D14,List_Categories,2,FALSE)+VLOOKUP(D15,List_Categories,2,FALSE))/5</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -2302,7 +2319,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -2310,7 +2327,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -2318,32 +2335,32 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="8">
-        <f>(VLOOKUP(D16,List_Categories,2,FALSE)+VLOOKUP(D17,List_Categories,2,FALSE)+VLOOKUP(D18,List_Categories,2,FALSE))/3</f>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8">
+        <f>(VLOOKUP(D17,List_Categories,2,FALSE)+VLOOKUP(D18,List_Categories,2,FALSE)+VLOOKUP(D19,List_Categories,2,FALSE))/3</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -2351,41 +2368,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="11">
-        <f>SUM(D20:D30)/6</f>
+      <c r="D20" s="11">
+        <f>SUM(D21:D33)/6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8">
-        <f>(VLOOKUP(D21,List_Categories,2,FALSE)+VLOOKUP(D22,List_Categories,2,FALSE)+VLOOKUP(D23,List_Categories,2,FALSE)+VLOOKUP(D24,List_Categories,2,FALSE)+VLOOKUP(D25,List_Categories,2,FALSE))/5</f>
+      <c r="D21" s="8">
+        <f>(VLOOKUP(D22,List_Categories,2,FALSE)+VLOOKUP(D23,List_Categories,2,FALSE)+VLOOKUP(D24,List_Categories,2,FALSE)+VLOOKUP(D25,List_Categories,2,FALSE)+VLOOKUP(D26,List_Categories,2,FALSE)+VLOOKUP(D27,List_Categories,2,FALSE)+VLOOKUP(D28,List_Categories,2,FALSE))/7</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -2393,7 +2410,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2401,7 +2418,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -2409,24 +2426,23 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="8">
-        <f>(VLOOKUP(D27,List_Categories,2,FALSE)+VLOOKUP(D28,List_Categories,2,FALSE)+VLOOKUP(D29,List_Categories,2,FALSE)+VLOOKUP(D30,List_Categories,2,FALSE))/4</f>
-        <v>0</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -2434,49 +2450,48 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="8">
+        <f>(VLOOKUP(D30,List_Categories,2,FALSE)+VLOOKUP(D31,List_Categories,2,FALSE)+VLOOKUP(D32,List_Categories,2,FALSE)+VLOOKUP(D33,List_Categories,2,FALSE)+VLOOKUP(D34,List_Categories,2,FALSE))/5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="11">
-        <f>SUM(D32:D39)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="8">
-        <f>(VLOOKUP(D33,List_Categories,2,FALSE)+VLOOKUP(D34,List_Categories,2,FALSE)+VLOOKUP(D35,List_Categories,2,FALSE))/3</f>
-        <v>0</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -2484,32 +2499,33 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="11">
+        <f>SUM(D36:D44)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D36" s="8">
-        <f>(VLOOKUP(D37,List_Categories,2,FALSE)+VLOOKUP(D38,List_Categories,2,FALSE)+VLOOKUP(D39,List_Categories,2,FALSE))/3</f>
+        <f>(VLOOKUP(D37,List_Categories,2,FALSE)+VLOOKUP(D38,List_Categories,2,FALSE)+VLOOKUP(D39,List_Categories,2,FALSE)+VLOOKUP(D40,List_Categories,2,FALSE))/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -2517,7 +2533,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -2525,24 +2541,23 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="11">
-        <f>SUM(D41:D49)/2</f>
-        <v>0</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D41" s="8">
         <f>(VLOOKUP(D42,List_Categories,2,FALSE)+VLOOKUP(D43,List_Categories,2,FALSE)+VLOOKUP(D44,List_Categories,2,FALSE))/3</f>
@@ -2551,7 +2566,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -2559,7 +2574,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -2567,32 +2582,33 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="8">
-        <f>(VLOOKUP(D46,List_Categories,2,FALSE)+VLOOKUP(D47,List_Categories,2,FALSE)+VLOOKUP(D48,List_Categories,2,FALSE)+VLOOKUP(D49,List_Categories,2,FALSE))/4</f>
+    <row r="45" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="11">
+        <f>SUM(D46:D54)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
+    <row r="46" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="8">
+        <f>(VLOOKUP(D47,List_Categories,2,FALSE)+VLOOKUP(D48,List_Categories,2,FALSE)+VLOOKUP(D49,List_Categories,2,FALSE))/3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -2600,7 +2616,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -2608,33 +2624,32 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="11">
-        <f>SUM(D51:D65)/4</f>
+    <row r="50" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="8">
+        <f>(VLOOKUP(D51,List_Categories,2,FALSE)+VLOOKUP(D52,List_Categories,2,FALSE)+VLOOKUP(D53,List_Categories,2,FALSE)+VLOOKUP(D54,List_Categories,2,FALSE))/4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="8">
-        <f>(VLOOKUP(D52,List_Categories,2,FALSE)+VLOOKUP(D53,List_Categories,2,FALSE)+VLOOKUP(D54,List_Categories,2,FALSE))/3</f>
-        <v>0</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
@@ -2642,7 +2657,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
@@ -2650,32 +2665,33 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="8">
-        <f>(VLOOKUP(D56,List_Categories,2,FALSE)+VLOOKUP(D57,List_Categories,2,FALSE)+VLOOKUP(D58,List_Categories,2,FALSE))/3</f>
+    <row r="55" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="11">
+        <f>SUM(D56:D70)/4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
+    <row r="56" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="8">
+        <f>(VLOOKUP(D57,List_Categories,2,FALSE)+VLOOKUP(D58,List_Categories,2,FALSE)+VLOOKUP(D59,List_Categories,2,FALSE))/3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
@@ -2683,32 +2699,32 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="8">
-        <f>(VLOOKUP(D60,List_Categories,2,FALSE)+VLOOKUP(D61,List_Categories,2,FALSE)++VLOOKUP(D62,List_Categories,2,FALSE))/3</f>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="8">
+        <f>(VLOOKUP(D61,List_Categories,2,FALSE)+VLOOKUP(D62,List_Categories,2,FALSE)+VLOOKUP(D63,List_Categories,2,FALSE))/3</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
@@ -2716,184 +2732,225 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="8">
-        <f>(VLOOKUP(D64,List_Categories,2,FALSE)+VLOOKUP(D65,List_Categories,2,FALSE))/2</f>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="8">
+        <f>(VLOOKUP(D65,List_Categories,2,FALSE)+VLOOKUP(D66,List_Categories,2,FALSE)++VLOOKUP(D67,List_Categories,2,FALSE))/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="8">
+        <f>(VLOOKUP(D69,List_Categories,2,FALSE)+VLOOKUP(D70,List_Categories,2,FALSE))/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D6 D60:D62">
+  <conditionalFormatting sqref="D7 D65:D67">
     <cfRule type="cellIs" dxfId="101" priority="278" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 D60:D62">
+  <conditionalFormatting sqref="D7 D65:D67">
     <cfRule type="cellIs" dxfId="100" priority="277" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 D60:D62">
+  <conditionalFormatting sqref="D7 D65:D67">
     <cfRule type="cellIs" dxfId="99" priority="276" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="cellIs" dxfId="98" priority="275" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="cellIs" dxfId="97" priority="274" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="cellIs" dxfId="96" priority="273" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D14">
+  <conditionalFormatting sqref="D11:D15">
     <cfRule type="cellIs" dxfId="95" priority="272" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D14">
+  <conditionalFormatting sqref="D11:D15">
     <cfRule type="cellIs" dxfId="94" priority="271" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D14">
+  <conditionalFormatting sqref="D11:D15">
     <cfRule type="cellIs" dxfId="93" priority="270" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18">
+  <conditionalFormatting sqref="D17:D19">
     <cfRule type="cellIs" dxfId="92" priority="269" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18">
+  <conditionalFormatting sqref="D17:D19">
     <cfRule type="cellIs" dxfId="91" priority="268" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18">
+  <conditionalFormatting sqref="D17:D19">
     <cfRule type="cellIs" dxfId="90" priority="267" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D25">
+  <conditionalFormatting sqref="D22:D28">
     <cfRule type="cellIs" dxfId="89" priority="263" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D25">
+  <conditionalFormatting sqref="D22:D28">
     <cfRule type="cellIs" dxfId="88" priority="262" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D25">
+  <conditionalFormatting sqref="D22:D28">
     <cfRule type="cellIs" dxfId="87" priority="261" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D30">
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="cellIs" dxfId="86" priority="260" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D30">
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="cellIs" dxfId="85" priority="259" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D30">
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="cellIs" dxfId="84" priority="258" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D58">
+  <conditionalFormatting sqref="D61:D63">
     <cfRule type="cellIs" dxfId="83" priority="215" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D58">
+  <conditionalFormatting sqref="D61:D63">
     <cfRule type="cellIs" dxfId="82" priority="214" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D58">
+  <conditionalFormatting sqref="D61:D63">
     <cfRule type="cellIs" dxfId="81" priority="213" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D39">
+  <conditionalFormatting sqref="D42:D44">
     <cfRule type="cellIs" dxfId="80" priority="248" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D39">
+  <conditionalFormatting sqref="D42:D44">
     <cfRule type="cellIs" dxfId="79" priority="247" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D39">
+  <conditionalFormatting sqref="D42:D44">
     <cfRule type="cellIs" dxfId="78" priority="246" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D54">
+  <conditionalFormatting sqref="D57:D59">
     <cfRule type="cellIs" dxfId="77" priority="218" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D54">
+  <conditionalFormatting sqref="D57:D59">
     <cfRule type="cellIs" dxfId="76" priority="217" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D54">
+  <conditionalFormatting sqref="D57:D59">
     <cfRule type="cellIs" dxfId="75" priority="216" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D69">
     <cfRule type="cellIs" dxfId="74" priority="209" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D69">
     <cfRule type="cellIs" dxfId="73" priority="208" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D69">
     <cfRule type="cellIs" dxfId="72" priority="207" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
@@ -2914,17 +2971,17 @@
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="68" priority="117" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="67" priority="116" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="66" priority="115" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
@@ -2946,332 +3003,332 @@
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="62" priority="114" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="61" priority="113" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="60" priority="112" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="59" priority="111" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="58" priority="110" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D45">
     <cfRule type="cellIs" dxfId="57" priority="109" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="56" priority="108" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="55" priority="107" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="54" priority="106" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="53" priority="105" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="52" priority="104" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="51" priority="103" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="50" priority="102" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="49" priority="101" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="48" priority="100" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D29">
     <cfRule type="cellIs" dxfId="47" priority="66" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D29">
     <cfRule type="cellIs" dxfId="46" priority="65" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D29">
     <cfRule type="cellIs" dxfId="45" priority="64" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="44" priority="69" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="43" priority="68" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="42" priority="67" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
+      <formula>0.5</formula>
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="between">
+      <formula>0.5</formula>
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="33" priority="22" operator="between">
+      <formula>0.5</formula>
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
+      <formula>0.5</formula>
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="47" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="between">
-      <formula>0.5</formula>
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="between">
-      <formula>0.5</formula>
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="33" priority="22" operator="between">
-      <formula>0.5</formula>
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
-      <formula>0.5</formula>
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="29" priority="48" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="28" priority="47" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="27" priority="46" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D37:D40">
     <cfRule type="cellIs" dxfId="26" priority="45" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D37:D40">
     <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D37:D40">
     <cfRule type="cellIs" dxfId="24" priority="43" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="23" priority="39" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="22" priority="38" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="21" priority="37" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
+  <conditionalFormatting sqref="D47:D49">
     <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
+  <conditionalFormatting sqref="D47:D49">
     <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D44">
+  <conditionalFormatting sqref="D47:D49">
     <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="17" priority="33" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="16" priority="32" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" dxfId="15" priority="31" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D49">
+  <conditionalFormatting sqref="D51:D54">
     <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D49">
+  <conditionalFormatting sqref="D51:D54">
     <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D49">
+  <conditionalFormatting sqref="D51:D54">
     <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="11" priority="18" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="10" priority="17" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
+  <conditionalFormatting sqref="D64">
     <cfRule type="cellIs" dxfId="9" priority="16" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D4:D5">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D4:D5">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D4:D5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
@@ -3285,7 +3342,7 @@
           <x14:formula1>
             <xm:f>'Other Values'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D8 D64:D65 D10:D14 D16:D18 D46:D49 D21:D25 D27:D30 D37:D39 D33:D35 D42:D44 D52:D54 D56:D58 D60:D62</xm:sqref>
+          <xm:sqref>D65:D67 D69:D70 D11:D15 D17:D19 D51:D54 D4:D9 D22:D28 D42:D44 D30:D34 D47:D49 D57:D59 D61:D63 D37:D40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
